--- a/public/exports/mediation_cases.xlsx
+++ b/public/exports/mediation_cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>caseNo</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>0000/0000</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,8 +493,60 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/exports/mediation_cases.xlsx
+++ b/public/exports/mediation_cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>caseNo</t>
   </si>
@@ -35,33 +35,6 @@
   </si>
   <si>
     <t>Next Hearing</t>
-  </si>
-  <si>
-    <t>0000/00</t>
-  </si>
-  <si>
-    <t>xxx vs xxx</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Ramesh Achint</t>
-  </si>
-  <si>
-    <t>2025-08-02</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>2025-08-03</t>
-  </si>
-  <si>
-    <t>0000/0000</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -438,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -465,84 +438,6 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
